--- a/modules/log/Abylai.xlsx
+++ b/modules/log/Abylai.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N53"/>
+  <dimension ref="A1:N56"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -2734,9 +2734,141 @@
         <v>17</v>
       </c>
     </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Abylai</v>
+      </c>
+      <c r="B54" t="str">
+        <v>40821</v>
+      </c>
+      <c r="C54" t="str">
+        <v>К/Х "Усманов М,"</v>
+      </c>
+      <c r="D54" t="str">
+        <v>Хусанова (Карасу)(AZ)</v>
+      </c>
+      <c r="E54" t="str">
+        <v>б/н</v>
+      </c>
+      <c r="F54" t="str">
+        <v>75517</v>
+      </c>
+      <c r="G54" t="str">
+        <v>30</v>
+      </c>
+      <c r="H54" t="str">
+        <v>71</v>
+      </c>
+      <c r="I54" t="str">
+        <v>41</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2025</v>
+      </c>
+      <c r="K54" t="str">
+        <v>5</v>
+      </c>
+      <c r="L54" t="str">
+        <v>24</v>
+      </c>
+      <c r="M54" t="str">
+        <v>12</v>
+      </c>
+      <c r="N54" t="str">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Abylai</v>
+      </c>
+      <c r="B55" t="str">
+        <v>39637</v>
+      </c>
+      <c r="C55" t="str">
+        <v>КХ "Жас-Нур"</v>
+      </c>
+      <c r="D55" t="str">
+        <v>Фезули(Жанатурмыс)</v>
+      </c>
+      <c r="E55" t="str">
+        <v>б/н</v>
+      </c>
+      <c r="F55" t="str">
+        <v>68967</v>
+      </c>
+      <c r="G55" t="str">
+        <v>447</v>
+      </c>
+      <c r="H55" t="str">
+        <v>469</v>
+      </c>
+      <c r="I55" t="str">
+        <v>22</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2025</v>
+      </c>
+      <c r="K55" t="str">
+        <v>5</v>
+      </c>
+      <c r="L55" t="str">
+        <v>24</v>
+      </c>
+      <c r="M55" t="str">
+        <v>12</v>
+      </c>
+      <c r="N55" t="str">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Abylai</v>
+      </c>
+      <c r="B56" t="str">
+        <v>41047</v>
+      </c>
+      <c r="C56" t="str">
+        <v>Баня (Нур)</v>
+      </c>
+      <c r="D56" t="str">
+        <v>Жибек-Жолы(AZ)</v>
+      </c>
+      <c r="E56" t="str">
+        <v>239а</v>
+      </c>
+      <c r="F56" t="str">
+        <v>77594</v>
+      </c>
+      <c r="G56" t="str">
+        <v>320</v>
+      </c>
+      <c r="H56" t="str">
+        <v>405</v>
+      </c>
+      <c r="I56" t="str">
+        <v>85</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2025</v>
+      </c>
+      <c r="K56" t="str">
+        <v>5</v>
+      </c>
+      <c r="L56" t="str">
+        <v>24</v>
+      </c>
+      <c r="M56" t="str">
+        <v>12</v>
+      </c>
+      <c r="N56" t="str">
+        <v>57</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N53"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N56"/>
   </ignoredErrors>
 </worksheet>
 </file>